--- a/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>BRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,90 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -754,10 +757,10 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -766,36 +769,39 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -804,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -816,22 +822,22 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
-      </c>
-      <c r="P9" s="3">
-        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -839,8 +845,11 @@
       <c r="R9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,11 +863,11 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -878,19 +887,22 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>2400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1036,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1048,19 +1067,22 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,13 +1151,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>2600</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1141,10 +1167,10 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1153,36 +1179,39 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-2400</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
@@ -1191,10 +1220,10 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1206,28 +1235,31 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1276,17 +1309,17 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1296,26 +1329,29 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
@@ -1323,36 +1359,39 @@
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1361,11 +1400,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1385,24 +1424,27 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-2800</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1411,14 +1453,14 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
@@ -1426,28 +1468,31 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,13 +1594,16 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-2800</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1561,14 +1612,14 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
@@ -1576,33 +1627,36 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-2800</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1611,14 +1665,14 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
@@ -1626,28 +1680,31 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1876,16 +1945,16 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1896,13 +1965,16 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-2800</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1911,14 +1983,14 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
@@ -1926,28 +1998,31 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,13 +2071,16 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-2800</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2011,14 +2089,14 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
@@ -2026,83 +2104,89 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,13 +2330,16 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2268,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2277,22 +2369,25 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>500</v>
       </c>
       <c r="R43" s="3">
+        <v>500</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2309,13 +2404,13 @@
         <v>1200</v>
       </c>
       <c r="H44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I44" s="3">
         <v>1100</v>
       </c>
       <c r="J44" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K44" s="3">
         <v>1200</v>
@@ -2327,45 +2422,48 @@
         <v>1200</v>
       </c>
       <c r="N44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="O44" s="3">
         <v>1300</v>
       </c>
       <c r="P44" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Q44" s="3">
         <v>1200</v>
       </c>
       <c r="R44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2391,34 +2489,37 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1200</v>
       </c>
       <c r="J46" s="3">
         <v>1200</v>
       </c>
       <c r="K46" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L46" s="3">
         <v>1300</v>
@@ -2433,16 +2534,19 @@
         <v>1300</v>
       </c>
       <c r="P46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2521,7 +2628,7 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
@@ -2533,16 +2640,19 @@
         <v>300</v>
       </c>
       <c r="P48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>700</v>
       </c>
       <c r="R48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2729,8 +2848,8 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,40 +2913,43 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1500</v>
       </c>
       <c r="F54" s="3">
         <v>1500</v>
       </c>
       <c r="G54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1400</v>
       </c>
       <c r="J54" s="3">
         <v>1400</v>
       </c>
       <c r="K54" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L54" s="3">
         <v>1500</v>
       </c>
       <c r="M54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="N54" s="3">
         <v>1600</v>
@@ -2833,16 +2958,19 @@
         <v>1600</v>
       </c>
       <c r="P54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,28 +3010,29 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -2911,16 +3041,16 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -2929,10 +3059,13 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2946,22 +3079,22 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
       </c>
       <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>900</v>
       </c>
       <c r="M58" s="3">
         <v>900</v>
@@ -2973,7 +3106,7 @@
         <v>900</v>
       </c>
       <c r="P58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q58" s="3">
         <v>1000</v>
@@ -2981,13 +3114,16 @@
       <c r="R58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -2999,19 +3135,19 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1100</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
       </c>
       <c r="L59" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
@@ -3020,69 +3156,75 @@
         <v>800</v>
       </c>
       <c r="O59" s="3">
+        <v>800</v>
+      </c>
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>1300</v>
       </c>
       <c r="F60" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="G60" s="3">
         <v>1100</v>
       </c>
       <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1800</v>
       </c>
       <c r="K60" s="3">
         <v>1800</v>
       </c>
       <c r="L60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M60" s="3">
         <v>1900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2000</v>
       </c>
       <c r="N60" s="3">
         <v>2000</v>
       </c>
       <c r="O60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1900</v>
       </c>
       <c r="R60" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,13 +3273,16 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
@@ -3146,13 +3291,13 @@
         <v>1100</v>
       </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>1000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -3169,8 +3314,8 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,49 +3485,52 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E66" s="3">
         <v>2300</v>
       </c>
       <c r="F66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1800</v>
       </c>
       <c r="K66" s="3">
         <v>1800</v>
       </c>
       <c r="L66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1900</v>
       </c>
       <c r="O66" s="3">
         <v>1900</v>
       </c>
       <c r="P66" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="Q66" s="3">
         <v>2100</v>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-8600</v>
       </c>
       <c r="H72" s="3">
         <v>-8600</v>
       </c>
       <c r="I72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-8500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-7900</v>
       </c>
       <c r="N72" s="3">
         <v>-7900</v>
       </c>
       <c r="O72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="P72" s="3">
         <v>-7800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,34 +3983,37 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -3837,22 +4022,25 @@
         <v>-300</v>
       </c>
       <c r="N76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,68 +4089,74 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-2800</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -3971,14 +4165,14 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
@@ -3986,28 +4180,31 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4065,19 +4263,22 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,13 +4539,16 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4344,10 +4560,10 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -4356,11 +4572,11 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4410,8 +4630,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -4434,8 +4654,8 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4563,8 +4792,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
@@ -4572,8 +4801,8 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4834,11 +5079,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4846,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>BRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,172 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -825,31 +839,37 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,14 +886,14 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -890,19 +910,25 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,25 +1062,31 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>2400</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1058,31 +1098,37 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,84 +1204,92 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1238,28 +1298,34 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,20 +1345,22 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1312,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1324,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1332,61 +1400,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,23 +1474,23 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1427,72 +1507,84 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,20 +2049,26 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1948,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1960,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -1968,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2399,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,10 +2528,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2363,31 +2549,37 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2407,16 +2599,16 @@
         <v>1200</v>
       </c>
       <c r="I44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1200</v>
       </c>
       <c r="M44" s="3">
         <v>1200</v>
@@ -2425,33 +2617,39 @@
         <v>1200</v>
       </c>
       <c r="O44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -2465,11 +2663,11 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2492,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,7 +2705,7 @@
         <v>1300</v>
       </c>
       <c r="E46" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F46" s="3">
         <v>1300</v>
@@ -2513,19 +2717,19 @@
         <v>1300</v>
       </c>
       <c r="I46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1300</v>
       </c>
       <c r="N46" s="3">
         <v>1300</v>
@@ -2537,16 +2741,22 @@
         <v>1300</v>
       </c>
       <c r="Q46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2631,10 +2847,10 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
@@ -2643,16 +2859,22 @@
         <v>300</v>
       </c>
       <c r="Q48" s="3">
+        <v>300</v>
+      </c>
+      <c r="R48" s="3">
+        <v>300</v>
+      </c>
+      <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2851,11 +3091,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1400</v>
       </c>
       <c r="F54" s="3">
         <v>1500</v>
       </c>
       <c r="G54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
-        <v>1400</v>
-      </c>
       <c r="I54" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="J54" s="3">
         <v>1400</v>
       </c>
       <c r="K54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1600</v>
       </c>
       <c r="P54" s="3">
         <v>1600</v>
       </c>
       <c r="Q54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,66 +3271,74 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
-        <v>200</v>
-      </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -3082,25 +3350,25 @@
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>900</v>
       </c>
       <c r="O58" s="3">
         <v>900</v>
@@ -3109,27 +3377,33 @@
         <v>900</v>
       </c>
       <c r="Q58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="R58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -3138,28 +3412,28 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
       </c>
       <c r="P59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q59" s="3">
         <v>800</v>
@@ -3168,51 +3442,57 @@
         <v>700</v>
       </c>
       <c r="S59" s="3">
+        <v>800</v>
+      </c>
+      <c r="T59" s="3">
+        <v>700</v>
+      </c>
+      <c r="U59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1900</v>
       </c>
       <c r="Q60" s="3">
         <v>2000</v>
@@ -3221,10 +3501,16 @@
         <v>1900</v>
       </c>
       <c r="S60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,34 +3562,40 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
-        <v>1100</v>
-      </c>
       <c r="F62" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
       </c>
       <c r="H62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -3317,11 +3609,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2000</v>
       </c>
       <c r="O66" s="3">
         <v>1900</v>
       </c>
       <c r="P66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
-        <v>2100</v>
-      </c>
       <c r="R66" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="S66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-7200</v>
       </c>
       <c r="S72" s="3">
         <v>-7300</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-7300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-600</v>
       </c>
       <c r="I76" s="3">
         <v>-700</v>
       </c>
       <c r="J76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S76" s="3">
         <v>200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4266,19 +4664,25 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,19 +4970,25 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4563,26 +4997,26 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,16 +5056,18 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4633,11 +5075,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -4657,11 +5099,11 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4795,20 +5255,20 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,20 +5547,26 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5082,25 +5574,25 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>BRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,10 +766,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -774,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -786,31 +790,34 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
       <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>600</v>
-      </c>
-      <c r="S8" s="3">
-        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,11 +828,11 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
@@ -833,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -845,22 +852,22 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -868,8 +875,11 @@
       <c r="U9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -892,11 +902,11 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -916,19 +926,22 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,28 +1085,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>2400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1104,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1116,19 +1136,22 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,22 +1232,23 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1230,10 +1257,10 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1242,46 +1269,49 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
@@ -1289,10 +1319,10 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1304,28 +1334,31 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,23 +1380,24 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1386,17 +1420,17 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1406,35 +1440,38 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
@@ -1442,31 +1479,34 @@
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
-        <v>-100</v>
-      </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,7 +1520,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1489,11 +1529,11 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1513,34 +1553,37 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
@@ -1548,14 +1591,14 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
@@ -1563,28 +1606,31 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,23 +1750,26 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
@@ -1725,14 +1777,14 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
@@ -1740,43 +1792,46 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
@@ -1784,14 +1839,14 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
@@ -1799,28 +1854,31 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,23 +2122,26 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2094,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2114,23 +2184,26 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
@@ -2138,14 +2211,14 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
@@ -2153,28 +2226,31 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,23 +2308,26 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
@@ -2256,14 +2335,14 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
@@ -2271,92 +2350,98 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,13 +2487,14 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,13 +2609,16 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2534,7 +2627,7 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2555,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2564,22 +2657,25 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>500</v>
       </c>
       <c r="U43" s="3">
+        <v>500</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2605,13 +2701,13 @@
         <v>1200</v>
       </c>
       <c r="K44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L44" s="3">
         <v>1100</v>
       </c>
       <c r="M44" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N44" s="3">
         <v>1200</v>
@@ -2623,22 +2719,25 @@
         <v>1200</v>
       </c>
       <c r="Q44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="R44" s="3">
         <v>1300</v>
       </c>
       <c r="S44" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T44" s="3">
         <v>1200</v>
       </c>
       <c r="U44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2651,8 +2750,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -2669,8 +2768,8 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2696,13 +2795,16 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E46" s="3">
         <v>1300</v>
@@ -2711,28 +2813,28 @@
         <v>1300</v>
       </c>
       <c r="G46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1200</v>
       </c>
       <c r="M46" s="3">
         <v>1200</v>
       </c>
       <c r="N46" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="O46" s="3">
         <v>1300</v>
@@ -2747,16 +2849,19 @@
         <v>1300</v>
       </c>
       <c r="S46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T46" s="3">
         <v>1600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2853,7 +2961,7 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
@@ -2865,16 +2973,19 @@
         <v>300</v>
       </c>
       <c r="S48" s="3">
+        <v>300</v>
+      </c>
+      <c r="T48" s="3">
         <v>600</v>
-      </c>
-      <c r="T48" s="3">
-        <v>700</v>
       </c>
       <c r="U48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3097,8 +3217,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,49 +3291,52 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1500</v>
       </c>
       <c r="F54" s="3">
         <v>1500</v>
       </c>
       <c r="G54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H54" s="3">
         <v>1400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1500</v>
       </c>
       <c r="I54" s="3">
         <v>1500</v>
       </c>
       <c r="J54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1400</v>
       </c>
       <c r="M54" s="3">
         <v>1400</v>
       </c>
       <c r="N54" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="O54" s="3">
         <v>1500</v>
       </c>
       <c r="P54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="Q54" s="3">
         <v>1600</v>
@@ -3219,16 +3345,19 @@
         <v>1600</v>
       </c>
       <c r="S54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T54" s="3">
         <v>2300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,37 +3403,38 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3312,16 +3443,16 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
@@ -3330,18 +3461,21 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
@@ -3356,22 +3490,22 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
       </c>
       <c r="L58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
       </c>
       <c r="N58" s="3">
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>900</v>
       </c>
       <c r="P58" s="3">
         <v>900</v>
@@ -3383,7 +3517,7 @@
         <v>900</v>
       </c>
       <c r="S58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T58" s="3">
         <v>1000</v>
@@ -3391,22 +3525,25 @@
       <c r="U58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -3418,19 +3555,19 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1100</v>
       </c>
       <c r="N59" s="3">
         <v>1100</v>
       </c>
       <c r="O59" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="P59" s="3">
         <v>800</v>
@@ -3439,78 +3576,84 @@
         <v>800</v>
       </c>
       <c r="R59" s="3">
+        <v>800</v>
+      </c>
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1300</v>
       </c>
       <c r="H60" s="3">
         <v>1300</v>
       </c>
       <c r="I60" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="J60" s="3">
         <v>1100</v>
       </c>
       <c r="K60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1800</v>
       </c>
       <c r="N60" s="3">
         <v>1800</v>
       </c>
       <c r="O60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P60" s="3">
         <v>1900</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2000</v>
       </c>
       <c r="Q60" s="3">
         <v>2000</v>
       </c>
       <c r="R60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1900</v>
       </c>
       <c r="U60" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3577,13 +3723,13 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
       </c>
       <c r="G62" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>1100</v>
@@ -3592,13 +3738,13 @@
         <v>1100</v>
       </c>
       <c r="J62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>1000</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -3615,8 +3761,8 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,58 +3959,61 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2300</v>
       </c>
       <c r="H66" s="3">
         <v>2300</v>
       </c>
       <c r="I66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1800</v>
       </c>
       <c r="N66" s="3">
         <v>1800</v>
       </c>
       <c r="O66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1900</v>
       </c>
       <c r="R66" s="3">
         <v>1900</v>
       </c>
       <c r="S66" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="T66" s="3">
         <v>2100</v>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-8600</v>
       </c>
       <c r="K72" s="3">
         <v>-8600</v>
       </c>
       <c r="L72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-8500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-7900</v>
       </c>
       <c r="Q72" s="3">
         <v>-7900</v>
       </c>
       <c r="R72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="S72" s="3">
         <v>-7800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,43 +4541,46 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
@@ -4403,22 +4589,25 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,87 +4665,93 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
@@ -4564,14 +4759,14 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
@@ -4579,28 +4774,31 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4670,19 +4869,22 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,22 +5190,25 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5003,10 +5220,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5015,11 +5232,11 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5069,8 +5290,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5081,8 +5302,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5105,8 +5326,8 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5261,8 +5491,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
@@ -5270,8 +5500,8 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,23 +5796,26 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5580,11 +5826,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5592,10 +5838,10 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,13 +5920,16 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>BRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,105 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -769,10 +772,10 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -781,10 +784,10 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -793,36 +796,39 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>600</v>
-      </c>
-      <c r="T8" s="3">
-        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -831,11 +837,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -843,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -855,22 +861,22 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>400</v>
-      </c>
-      <c r="T9" s="3">
-        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
@@ -878,13 +884,16 @@
       <c r="V9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -905,11 +914,11 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -929,19 +938,22 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,31 +1104,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>2400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1127,10 +1146,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1139,19 +1158,22 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,25 +1258,26 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1260,10 +1286,10 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1272,49 +1298,52 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>-100</v>
-      </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
@@ -1322,10 +1351,10 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1337,28 +1366,31 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,26 +1413,27 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1423,17 +1456,17 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1443,38 +1476,41 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
@@ -1482,31 +1518,34 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
-        <v>-100</v>
-      </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,7 +1562,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1532,11 +1571,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1556,37 +1595,40 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
@@ -1594,14 +1636,14 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
@@ -1609,28 +1651,31 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,26 +1801,29 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
@@ -1780,14 +1831,14 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
@@ -1795,46 +1846,49 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
@@ -1842,14 +1896,14 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
@@ -1857,28 +1911,31 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,26 +2191,29 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2167,16 +2236,16 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2187,26 +2256,29 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
@@ -2214,14 +2286,14 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
@@ -2229,28 +2301,31 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,26 +2386,29 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
@@ -2338,14 +2416,14 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
@@ -2353,95 +2431,101 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2497,7 +2583,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,16 +2701,19 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2630,7 +2722,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2651,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2660,27 +2752,30 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>500</v>
       </c>
       <c r="V43" s="3">
+        <v>500</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E44" s="3">
         <v>1200</v>
@@ -2704,13 +2799,13 @@
         <v>1200</v>
       </c>
       <c r="L44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M44" s="3">
         <v>1100</v>
       </c>
       <c r="N44" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O44" s="3">
         <v>1200</v>
@@ -2722,22 +2817,25 @@
         <v>1200</v>
       </c>
       <c r="R44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S44" s="3">
         <v>1300</v>
       </c>
       <c r="T44" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="U44" s="3">
         <v>1200</v>
       </c>
       <c r="V44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2753,8 +2851,8 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -2771,8 +2869,8 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2798,16 +2896,19 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1300</v>
       </c>
       <c r="F46" s="3">
         <v>1300</v>
@@ -2816,28 +2917,28 @@
         <v>1300</v>
       </c>
       <c r="H46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1200</v>
       </c>
       <c r="N46" s="3">
         <v>1200</v>
       </c>
       <c r="O46" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P46" s="3">
         <v>1300</v>
@@ -2852,16 +2953,19 @@
         <v>1300</v>
       </c>
       <c r="T46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U46" s="3">
         <v>1600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,13 +3026,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2964,7 +3071,7 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
@@ -2976,16 +3083,19 @@
         <v>300</v>
       </c>
       <c r="T48" s="3">
+        <v>300</v>
+      </c>
+      <c r="U48" s="3">
         <v>600</v>
-      </c>
-      <c r="U48" s="3">
-        <v>700</v>
       </c>
       <c r="V48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3220,8 +3339,8 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,52 +3416,55 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1500</v>
       </c>
       <c r="G54" s="3">
         <v>1500</v>
       </c>
       <c r="H54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I54" s="3">
         <v>1400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1500</v>
       </c>
       <c r="J54" s="3">
         <v>1500</v>
       </c>
       <c r="K54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1400</v>
       </c>
       <c r="N54" s="3">
         <v>1400</v>
       </c>
       <c r="O54" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="P54" s="3">
         <v>1500</v>
       </c>
       <c r="Q54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="R54" s="3">
         <v>1600</v>
@@ -3348,16 +3473,19 @@
         <v>1600</v>
       </c>
       <c r="T54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U54" s="3">
         <v>2300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3413,31 +3543,31 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3446,16 +3576,16 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -3464,21 +3594,24 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -3493,22 +3626,22 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
         <v>500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>900</v>
       </c>
       <c r="Q58" s="3">
         <v>900</v>
@@ -3520,7 +3653,7 @@
         <v>900</v>
       </c>
       <c r="T58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="U58" s="3">
         <v>1000</v>
@@ -3528,8 +3661,11 @@
       <c r="V58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3537,16 +3673,16 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -3558,19 +3694,19 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1100</v>
       </c>
       <c r="O59" s="3">
         <v>1100</v>
       </c>
       <c r="P59" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q59" s="3">
         <v>800</v>
@@ -3579,81 +3715,87 @@
         <v>800</v>
       </c>
       <c r="S59" s="3">
+        <v>800</v>
+      </c>
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1300</v>
       </c>
       <c r="I60" s="3">
         <v>1300</v>
       </c>
       <c r="J60" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K60" s="3">
         <v>1100</v>
       </c>
       <c r="L60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1800</v>
       </c>
       <c r="O60" s="3">
         <v>1800</v>
       </c>
       <c r="P60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2000</v>
       </c>
       <c r="R60" s="3">
         <v>2000</v>
       </c>
       <c r="S60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1900</v>
       </c>
       <c r="V60" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3726,13 +3871,13 @@
         <v>500</v>
       </c>
       <c r="F62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
       </c>
       <c r="H62" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>1100</v>
@@ -3741,13 +3886,13 @@
         <v>1100</v>
       </c>
       <c r="K62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>1000</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -3764,8 +3909,8 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,61 +4116,64 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2300</v>
       </c>
       <c r="I66" s="3">
         <v>2300</v>
       </c>
       <c r="J66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1800</v>
       </c>
       <c r="O66" s="3">
         <v>1800</v>
       </c>
       <c r="P66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1900</v>
       </c>
       <c r="S66" s="3">
         <v>1900</v>
       </c>
       <c r="T66" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="U66" s="3">
         <v>2100</v>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4305,61 +4478,64 @@
         <v>-11800</v>
       </c>
       <c r="E72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-8600</v>
       </c>
       <c r="L72" s="3">
         <v>-8600</v>
       </c>
       <c r="M72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="N72" s="3">
         <v>-8500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-7900</v>
       </c>
       <c r="R72" s="3">
         <v>-7900</v>
       </c>
       <c r="S72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="T72" s="3">
         <v>-7800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,46 +4726,49 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -4592,22 +4777,25 @@
         <v>-300</v>
       </c>
       <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,93 +4856,99 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
@@ -4762,14 +4956,14 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
@@ -4777,28 +4971,31 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4872,19 +5070,22 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>400</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,25 +5406,28 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -5223,10 +5439,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5235,11 +5451,11 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5255,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5293,8 +5513,8 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5305,8 +5525,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -5329,8 +5549,8 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5494,8 +5723,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
@@ -5503,8 +5732,8 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,26 +6041,29 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5829,11 +6074,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5841,10 +6086,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5861,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,17 +6171,20 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>BRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,211 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -864,42 +878,48 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>400</v>
-      </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
-      <c r="V9" s="3">
-        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -917,14 +937,14 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
@@ -941,19 +961,25 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,37 +1141,43 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1149,31 +1189,37 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,108 +1311,116 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1369,28 +1429,34 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,32 +1480,34 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1459,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1471,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1479,81 +1547,93 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
       <c r="W21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1565,23 +1645,23 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1598,84 +1678,96 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,32 +2328,38 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2239,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2251,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2259,73 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,23 +2746,25 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2813,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,22 +2899,22 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2746,42 +2932,48 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F44" s="3">
         <v>1100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1200</v>
       </c>
       <c r="G44" s="3">
         <v>1200</v>
@@ -2802,16 +2994,16 @@
         <v>1200</v>
       </c>
       <c r="M44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O44" s="3">
         <v>1100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1100</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1200</v>
       </c>
       <c r="Q44" s="3">
         <v>1200</v>
@@ -2820,22 +3012,28 @@
         <v>1200</v>
       </c>
       <c r="S44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U44" s="3">
         <v>1300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2854,11 +3052,11 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -2872,11 +3070,11 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2899,28 +3097,34 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1300</v>
+        <v>5300</v>
       </c>
       <c r="E46" s="3">
-        <v>1400</v>
+        <v>3600</v>
       </c>
       <c r="F46" s="3">
         <v>1300</v>
       </c>
       <c r="G46" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H46" s="3">
         <v>1300</v>
       </c>
       <c r="I46" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J46" s="3">
         <v>1300</v>
@@ -2932,19 +3136,19 @@
         <v>1300</v>
       </c>
       <c r="M46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1300</v>
       </c>
       <c r="R46" s="3">
         <v>1300</v>
@@ -2956,16 +3160,22 @@
         <v>1300</v>
       </c>
       <c r="U46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W46" s="3">
         <v>1600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,19 +3239,25 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -3074,10 +3290,10 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>300</v>
@@ -3086,39 +3302,45 @@
         <v>300</v>
       </c>
       <c r="U48" s="3">
+        <v>300</v>
+      </c>
+      <c r="V48" s="3">
+        <v>300</v>
+      </c>
+      <c r="W48" s="3">
         <v>600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3342,11 +3582,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1400</v>
       </c>
       <c r="J54" s="3">
         <v>1500</v>
       </c>
       <c r="K54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
-        <v>1400</v>
-      </c>
       <c r="M54" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="N54" s="3">
         <v>1400</v>
       </c>
       <c r="O54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1600</v>
       </c>
       <c r="T54" s="3">
         <v>1600</v>
       </c>
       <c r="U54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W54" s="3">
         <v>2300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,90 +3794,98 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
-        <v>200</v>
-      </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -3629,25 +3897,25 @@
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>900</v>
       </c>
       <c r="S58" s="3">
         <v>900</v>
@@ -3656,39 +3924,45 @@
         <v>900</v>
       </c>
       <c r="U58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="W58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -3697,28 +3971,28 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>800</v>
-      </c>
-      <c r="R59" s="3">
-        <v>800</v>
       </c>
       <c r="S59" s="3">
         <v>800</v>
       </c>
       <c r="T59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U59" s="3">
         <v>800</v>
@@ -3727,63 +4001,69 @@
         <v>700</v>
       </c>
       <c r="W59" s="3">
+        <v>800</v>
+      </c>
+      <c r="X59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1900</v>
       </c>
       <c r="U60" s="3">
         <v>2000</v>
@@ -3792,18 +4072,24 @@
         <v>1900</v>
       </c>
       <c r="W60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X60" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3859,13 +4145,19 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
@@ -3874,31 +4166,31 @@
         <v>500</v>
       </c>
       <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1100</v>
       </c>
       <c r="K62" s="3">
         <v>1100</v>
       </c>
       <c r="L62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -3912,11 +4204,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2000</v>
       </c>
       <c r="S66" s="3">
         <v>1900</v>
       </c>
       <c r="T66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
-        <v>2100</v>
-      </c>
       <c r="V66" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="W66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-7900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-7900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-7200</v>
       </c>
       <c r="W72" s="3">
         <v>-7300</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-7300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-600</v>
       </c>
       <c r="M76" s="3">
         <v>-700</v>
       </c>
       <c r="N76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
       </c>
       <c r="S76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="T76" s="3">
         <v>-300</v>
       </c>
       <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W76" s="3">
         <v>200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,16 +5415,18 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5073,19 +5471,25 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>400</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,31 +5837,37 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5442,26 +5876,26 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5908,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,16 +5939,18 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -5516,11 +5958,11 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5528,11 +5970,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -5552,11 +5994,11 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5726,20 +6186,20 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,32 +6530,38 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>2100</v>
       </c>
       <c r="E100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6077,25 +6569,25 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6109,8 +6601,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,23 +6672,29 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E102" s="3">
+        <v>800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6741,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>BRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -789,10 +793,10 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -801,10 +805,10 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
@@ -813,46 +817,49 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
       <c r="T8" s="3">
+        <v>200</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>600</v>
-      </c>
-      <c r="W8" s="3">
-        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
@@ -860,11 +867,11 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
@@ -872,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -884,22 +891,22 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>400</v>
-      </c>
-      <c r="W9" s="3">
-        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
@@ -907,22 +914,25 @@
       <c r="Y9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -943,11 +953,11 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
@@ -967,19 +977,22 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1156,31 +1176,31 @@
         <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>2400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1195,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1207,19 +1227,22 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,34 +1339,35 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
-        <v>-100</v>
-      </c>
       <c r="H17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1349,10 +1376,10 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1361,58 +1388,61 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
-        <v>-100</v>
-      </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
@@ -1420,10 +1450,10 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1435,28 +1465,31 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,35 +1515,36 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1533,17 +1567,17 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1553,47 +1587,50 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
@@ -1601,42 +1638,45 @@
         <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>100</v>
       </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
-        <v>-100</v>
-      </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1651,7 +1691,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1660,11 +1700,11 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1684,46 +1724,49 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
@@ -1731,14 +1774,14 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
@@ -1746,28 +1789,31 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,35 +1957,38 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
@@ -1944,14 +1996,14 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
@@ -1959,55 +2011,58 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
@@ -2015,14 +2070,14 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
@@ -2030,28 +2085,31 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,35 +2401,38 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2385,16 +2455,16 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2405,35 +2475,38 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
@@ -2441,14 +2514,14 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
@@ -2456,28 +2529,31 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,35 +2623,38 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
@@ -2583,14 +2662,14 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
@@ -2598,104 +2677,110 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,25 +2834,26 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2819,8 +2906,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2905,10 +2998,10 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2917,7 +3010,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2938,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -2947,36 +3040,39 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>500</v>
       </c>
       <c r="Y43" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1200</v>
       </c>
       <c r="H44" s="3">
         <v>1200</v>
@@ -3000,13 +3096,13 @@
         <v>1200</v>
       </c>
       <c r="O44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="P44" s="3">
         <v>1100</v>
       </c>
       <c r="Q44" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="R44" s="3">
         <v>1200</v>
@@ -3018,22 +3114,25 @@
         <v>1200</v>
       </c>
       <c r="U44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="V44" s="3">
         <v>1300</v>
       </c>
       <c r="W44" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="X44" s="3">
         <v>1200</v>
       </c>
       <c r="Y44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3041,11 +3140,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -3058,8 +3157,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
@@ -3076,8 +3175,8 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3103,25 +3202,28 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E46" s="3">
         <v>5300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1300</v>
       </c>
       <c r="I46" s="3">
         <v>1300</v>
@@ -3130,28 +3232,28 @@
         <v>1300</v>
       </c>
       <c r="K46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1200</v>
       </c>
       <c r="Q46" s="3">
         <v>1200</v>
       </c>
       <c r="R46" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S46" s="3">
         <v>1300</v>
@@ -3166,16 +3268,19 @@
         <v>1300</v>
       </c>
       <c r="W46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X46" s="3">
         <v>1600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,22 +3350,25 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -3296,7 +3404,7 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>300</v>
@@ -3308,27 +3416,30 @@
         <v>300</v>
       </c>
       <c r="W48" s="3">
+        <v>300</v>
+      </c>
+      <c r="X48" s="3">
         <v>600</v>
-      </c>
-      <c r="X48" s="3">
-        <v>700</v>
       </c>
       <c r="Y48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E49" s="3">
         <v>3500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3600</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -3342,8 +3453,8 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3588,8 +3708,8 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,61 +3794,64 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E54" s="3">
         <v>9000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1500</v>
       </c>
       <c r="J54" s="3">
         <v>1500</v>
       </c>
       <c r="K54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="3">
         <v>1400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1500</v>
       </c>
       <c r="M54" s="3">
         <v>1500</v>
       </c>
       <c r="N54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1400</v>
       </c>
       <c r="Q54" s="3">
         <v>1400</v>
       </c>
       <c r="R54" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="S54" s="3">
         <v>1500</v>
       </c>
       <c r="T54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="U54" s="3">
         <v>1600</v>
@@ -3734,16 +3860,19 @@
         <v>1600</v>
       </c>
       <c r="W54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X54" s="3">
         <v>2300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,40 +3936,40 @@
         <v>1900</v>
       </c>
       <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3847,16 +3978,16 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
@@ -3865,30 +3996,33 @@
         <v>200</v>
       </c>
       <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
@@ -3903,22 +4037,22 @@
         <v>600</v>
       </c>
       <c r="N58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
       </c>
       <c r="P58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>400</v>
       </c>
       <c r="R58" s="3">
+        <v>400</v>
+      </c>
+      <c r="S58" s="3">
         <v>500</v>
-      </c>
-      <c r="S58" s="3">
-        <v>900</v>
       </c>
       <c r="T58" s="3">
         <v>900</v>
@@ -3930,7 +4064,7 @@
         <v>900</v>
       </c>
       <c r="W58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="X58" s="3">
         <v>1000</v>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3947,25 +4084,25 @@
         <v>2600</v>
       </c>
       <c r="E59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -3977,19 +4114,19 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1100</v>
       </c>
       <c r="R59" s="3">
         <v>1100</v>
       </c>
       <c r="S59" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T59" s="3">
         <v>800</v>
@@ -3998,90 +4135,96 @@
         <v>800</v>
       </c>
       <c r="V59" s="3">
+        <v>800</v>
+      </c>
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1300</v>
       </c>
       <c r="L60" s="3">
         <v>1300</v>
       </c>
       <c r="M60" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="N60" s="3">
         <v>1100</v>
       </c>
       <c r="O60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1800</v>
       </c>
       <c r="R60" s="3">
         <v>1800</v>
       </c>
       <c r="S60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T60" s="3">
         <v>1900</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2000</v>
       </c>
       <c r="U60" s="3">
         <v>2000</v>
       </c>
       <c r="V60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1900</v>
       </c>
       <c r="Y60" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4089,11 +4232,11 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4151,16 +4294,19 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>500</v>
       </c>
       <c r="F62" s="3">
         <v>500</v>
@@ -4172,13 +4318,13 @@
         <v>500</v>
       </c>
       <c r="I62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
       </c>
       <c r="K62" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>1100</v>
@@ -4187,13 +4333,13 @@
         <v>1100</v>
       </c>
       <c r="N62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>1000</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
@@ -4210,8 +4356,8 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,70 +4590,73 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2300</v>
       </c>
       <c r="L66" s="3">
         <v>2300</v>
       </c>
       <c r="M66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1800</v>
       </c>
       <c r="R66" s="3">
         <v>1800</v>
       </c>
       <c r="S66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1900</v>
       </c>
       <c r="V66" s="3">
         <v>1900</v>
       </c>
       <c r="W66" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="X66" s="3">
         <v>2100</v>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-11800</v>
       </c>
       <c r="G72" s="3">
         <v>-11800</v>
       </c>
       <c r="H72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-12200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-8600</v>
       </c>
       <c r="O72" s="3">
         <v>-8600</v>
       </c>
       <c r="P72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-7900</v>
       </c>
       <c r="U72" s="3">
         <v>-7900</v>
       </c>
       <c r="V72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="W72" s="3">
         <v>-7800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,55 +5284,58 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-300</v>
@@ -5158,22 +5344,25 @@
         <v>-300</v>
       </c>
       <c r="U76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,111 +5432,117 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
@@ -5355,14 +5550,14 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
@@ -5370,28 +5565,31 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5429,7 +5628,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5477,19 +5676,22 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>400</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,34 +6057,37 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5882,10 +6099,10 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5894,11 +6111,11 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -5914,8 +6131,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5952,8 +6173,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -5964,8 +6185,8 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5976,8 +6197,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -6000,8 +6221,8 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,13 +6381,16 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6192,8 +6422,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
@@ -6201,8 +6431,8 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,35 +6779,38 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
-        <v>-100</v>
-      </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6575,11 +6821,11 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6587,10 +6833,10 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,26 +6927,29 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>BRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,227 +665,240 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -894,51 +907,57 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
         <v>400</v>
-      </c>
-      <c r="X9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>800</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="F10" s="3">
         <v>800</v>
       </c>
       <c r="G10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>800</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -956,14 +975,14 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
@@ -980,19 +999,25 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1176,37 +1215,37 @@
         <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1218,31 +1257,37 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,126 +1391,134 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1468,28 +1527,34 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,41 +1581,43 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1570,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1582,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1590,99 +1657,111 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1694,23 +1773,23 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1727,93 +1806,105 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,41 +2537,47 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2458,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2470,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
@@ -2478,82 +2617,94 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,32 +3006,34 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2909,8 +3082,14 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,13 +3162,19 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3001,22 +3186,22 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -3034,51 +3219,57 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F44" s="3">
         <v>3000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1200</v>
       </c>
       <c r="J44" s="3">
         <v>1200</v>
@@ -3099,16 +3290,16 @@
         <v>1200</v>
       </c>
       <c r="P44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R44" s="3">
         <v>1100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1100</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1200</v>
       </c>
       <c r="T44" s="3">
         <v>1200</v>
@@ -3117,22 +3308,28 @@
         <v>1200</v>
       </c>
       <c r="V44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X44" s="3">
         <v>1300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3143,14 +3340,14 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -3160,11 +3357,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
@@ -3178,11 +3375,11 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3205,37 +3402,43 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F46" s="3">
         <v>4200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1400</v>
       </c>
       <c r="I46" s="3">
         <v>1300</v>
       </c>
       <c r="J46" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K46" s="3">
         <v>1300</v>
       </c>
       <c r="L46" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="M46" s="3">
         <v>1300</v>
@@ -3247,19 +3450,19 @@
         <v>1300</v>
       </c>
       <c r="P46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1300</v>
       </c>
       <c r="U46" s="3">
         <v>1300</v>
@@ -3271,16 +3474,22 @@
         <v>1300</v>
       </c>
       <c r="X46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z46" s="3">
         <v>1600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3562,14 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3362,19 +3577,19 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3407,10 +3622,10 @@
         <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>300</v>
@@ -3419,34 +3634,40 @@
         <v>300</v>
       </c>
       <c r="X48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F49" s="3">
         <v>6300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3456,11 +3677,11 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3501,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3882,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3711,11 +3950,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
@@ -3723,8 +3962,14 @@
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F54" s="3">
         <v>10700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1400</v>
       </c>
       <c r="M54" s="3">
         <v>1500</v>
       </c>
       <c r="N54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
-        <v>1400</v>
-      </c>
       <c r="P54" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="Q54" s="3">
         <v>1400</v>
       </c>
       <c r="R54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U54" s="3">
         <v>1500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1600</v>
       </c>
       <c r="W54" s="3">
         <v>1600</v>
       </c>
       <c r="X54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z54" s="3">
         <v>2300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,108 +4186,116 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
-        <v>200</v>
-      </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
       <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
@@ -4040,25 +4307,25 @@
         <v>600</v>
       </c>
       <c r="O58" s="3">
+        <v>600</v>
+      </c>
+      <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
-      </c>
-      <c r="T58" s="3">
-        <v>900</v>
-      </c>
-      <c r="U58" s="3">
-        <v>900</v>
       </c>
       <c r="V58" s="3">
         <v>900</v>
@@ -4067,48 +4334,54 @@
         <v>900</v>
       </c>
       <c r="X58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Y58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Z58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
@@ -4117,28 +4390,28 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
-      </c>
-      <c r="T59" s="3">
-        <v>800</v>
-      </c>
-      <c r="U59" s="3">
-        <v>800</v>
       </c>
       <c r="V59" s="3">
         <v>800</v>
       </c>
       <c r="W59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X59" s="3">
         <v>800</v>
@@ -4147,72 +4420,78 @@
         <v>700</v>
       </c>
       <c r="Z59" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
-      </c>
-      <c r="V60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1900</v>
       </c>
       <c r="X60" s="3">
         <v>2000</v>
@@ -4221,10 +4500,16 @@
         <v>1900</v>
       </c>
       <c r="Z60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4235,14 +4520,14 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4297,8 +4582,14 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4306,13 +4597,13 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
@@ -4321,32 +4612,32 @@
         <v>500</v>
       </c>
       <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3">
+        <v>500</v>
+      </c>
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1100</v>
       </c>
       <c r="N62" s="3">
         <v>1100</v>
       </c>
       <c r="O62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4359,11 +4650,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4371,8 +4662,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F66" s="3">
         <v>7600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="U66" s="3">
-        <v>2000</v>
       </c>
       <c r="V66" s="3">
         <v>1900</v>
       </c>
       <c r="W66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
-      <c r="X66" s="3">
-        <v>2100</v>
-      </c>
       <c r="Y66" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="Z66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-8300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-8100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-7900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-7900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-7200</v>
       </c>
       <c r="Z72" s="3">
         <v>-7300</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>-7300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F76" s="3">
         <v>3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-600</v>
       </c>
       <c r="P76" s="3">
         <v>-700</v>
       </c>
       <c r="Q76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-300</v>
       </c>
       <c r="U76" s="3">
         <v>-300</v>
       </c>
       <c r="V76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="W76" s="3">
         <v>-300</v>
       </c>
       <c r="X76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z76" s="3">
         <v>200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5631,10 +6028,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5679,19 +6076,25 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
         <v>400</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,40 +6487,46 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -6102,26 +6535,26 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -6134,8 +6567,14 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,13 +6601,15 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6176,11 +6617,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -6188,11 +6629,11 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6200,11 +6641,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -6224,11 +6665,11 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6236,8 +6677,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,20 +6837,26 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -6425,20 +6884,20 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6458,8 +6917,14 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,41 +7267,47 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
-        <v>2100</v>
+        <v>-200</v>
       </c>
       <c r="F100" s="3">
         <v>1100</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>2100</v>
       </c>
       <c r="H100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -6824,25 +7315,25 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6856,8 +7347,14 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,32 +7427,38 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -7002,6 +7505,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>BRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,147 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
@@ -809,11 +813,11 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
@@ -821,11 +825,11 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
@@ -833,54 +837,57 @@
         <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>600</v>
       </c>
-      <c r="Z8" s="3">
-        <v>100</v>
-      </c>
       <c r="AA8" s="3">
         <v>100</v>
       </c>
       <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3">
+        <v>1100</v>
       </c>
       <c r="E9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F9" s="3">
         <v>2700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -889,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -901,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -913,55 +920,58 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>200</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>400</v>
       </c>
-      <c r="Z9" s="3">
-        <v>100</v>
-      </c>
       <c r="AA9" s="3">
         <v>100</v>
       </c>
       <c r="AB9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>1400</v>
       </c>
       <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
@@ -981,11 +991,11 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
@@ -1005,19 +1015,22 @@
         <v>0</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
       <c r="AA10" s="3">
         <v>0</v>
       </c>
       <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,40 +1235,40 @@
         <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
         <v>-100</v>
       </c>
       <c r="H14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>2400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1263,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1275,19 +1295,22 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,43 +1419,44 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>-100</v>
-      </c>
       <c r="K17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1438,10 +1465,10 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1450,67 +1477,70 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
       <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>200</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
       </c>
       <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
@@ -1518,10 +1548,10 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
@@ -1533,28 +1563,31 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
       <c r="AB18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,44 +1616,45 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1643,16 +1677,16 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
@@ -1663,55 +1697,58 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
@@ -1720,52 +1757,55 @@
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
         <v>100</v>
       </c>
       <c r="X21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA21" s="3">
         <v>-100</v>
       </c>
       <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
@@ -1779,7 +1819,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1788,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1812,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1823,44 +1863,47 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
@@ -1868,14 +1911,14 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
@@ -1883,28 +1926,31 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,44 +2112,47 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
@@ -2108,14 +2160,14 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
@@ -2123,64 +2175,67 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
@@ -2188,14 +2243,14 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
@@ -2203,28 +2258,31 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,44 +2610,47 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2603,16 +2673,16 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
@@ -2623,44 +2693,47 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
@@ -2668,14 +2741,14 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
@@ -2683,28 +2756,31 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,44 +2859,47 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
@@ -2828,14 +2907,14 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
@@ -2843,113 +2922,119 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,34 +3094,35 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1100</v>
       </c>
       <c r="F41" s="3">
         <v>1100</v>
       </c>
       <c r="G41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -3088,8 +3175,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,13 +3258,16 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3192,11 +3285,11 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
@@ -3204,7 +3297,7 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3225,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
@@ -3234,45 +3327,48 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>500</v>
       </c>
       <c r="AB43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1200</v>
       </c>
       <c r="K44" s="3">
         <v>1200</v>
@@ -3296,13 +3392,13 @@
         <v>1200</v>
       </c>
       <c r="R44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="S44" s="3">
         <v>1100</v>
       </c>
       <c r="T44" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="U44" s="3">
         <v>1200</v>
@@ -3314,27 +3410,30 @@
         <v>1200</v>
       </c>
       <c r="X44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Y44" s="3">
         <v>1300</v>
       </c>
       <c r="Z44" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="AA44" s="3">
         <v>1200</v>
       </c>
       <c r="AB44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3346,11 +3445,11 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -3363,8 +3462,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
@@ -3381,8 +3480,8 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3408,34 +3507,37 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1300</v>
       </c>
       <c r="L46" s="3">
         <v>1300</v>
@@ -3444,28 +3546,28 @@
         <v>1300</v>
       </c>
       <c r="N46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1200</v>
       </c>
       <c r="T46" s="3">
         <v>1200</v>
       </c>
       <c r="U46" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="V46" s="3">
         <v>1300</v>
@@ -3480,16 +3582,19 @@
         <v>1300</v>
       </c>
       <c r="Z46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA46" s="3">
         <v>1600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,13 +3673,16 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -3583,16 +3691,16 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -3628,7 +3736,7 @@
         <v>200</v>
       </c>
       <c r="V48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>300</v>
@@ -3640,16 +3748,19 @@
         <v>300</v>
       </c>
       <c r="Z48" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA48" s="3">
         <v>600</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>700</v>
       </c>
       <c r="AB48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3657,19 +3768,19 @@
         <v>6100</v>
       </c>
       <c r="E49" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F49" s="3">
         <v>6200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3600</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -3683,8 +3794,8 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3956,8 +4076,8 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
+      <c r="Y52" s="3">
+        <v>0</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,70 +4171,73 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E54" s="3">
         <v>10100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1500</v>
       </c>
       <c r="M54" s="3">
         <v>1500</v>
       </c>
       <c r="N54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O54" s="3">
         <v>1400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1500</v>
       </c>
       <c r="P54" s="3">
         <v>1500</v>
       </c>
       <c r="Q54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1400</v>
       </c>
       <c r="T54" s="3">
         <v>1400</v>
       </c>
       <c r="U54" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="V54" s="3">
         <v>1500</v>
       </c>
       <c r="W54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="X54" s="3">
         <v>1600</v>
@@ -4120,16 +4246,19 @@
         <v>1600</v>
       </c>
       <c r="Z54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA54" s="3">
         <v>2300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,58 +4318,59 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1900</v>
       </c>
       <c r="G57" s="3">
         <v>1900</v>
       </c>
       <c r="H57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I57" s="3">
         <v>1500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -4248,16 +4379,16 @@
         <v>300</v>
       </c>
       <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
       </c>
       <c r="Y57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
@@ -4266,39 +4397,42 @@
         <v>200</v>
       </c>
       <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -4313,22 +4447,22 @@
         <v>600</v>
       </c>
       <c r="Q58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R58" s="3">
         <v>500</v>
       </c>
       <c r="S58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T58" s="3">
         <v>400</v>
       </c>
       <c r="U58" s="3">
+        <v>400</v>
+      </c>
+      <c r="V58" s="3">
         <v>500</v>
-      </c>
-      <c r="V58" s="3">
-        <v>900</v>
       </c>
       <c r="W58" s="3">
         <v>900</v>
@@ -4340,7 +4474,7 @@
         <v>900</v>
       </c>
       <c r="Z58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AA58" s="3">
         <v>1000</v>
@@ -4348,43 +4482,46 @@
       <c r="AB58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2600</v>
       </c>
       <c r="G59" s="3">
         <v>2600</v>
       </c>
       <c r="H59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I59" s="3">
         <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -4396,19 +4533,19 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1100</v>
       </c>
       <c r="U59" s="3">
         <v>1100</v>
       </c>
       <c r="V59" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="W59" s="3">
         <v>800</v>
@@ -4417,99 +4554,105 @@
         <v>800</v>
       </c>
       <c r="Y59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z59" s="3">
         <v>700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1300</v>
       </c>
       <c r="O60" s="3">
         <v>1300</v>
       </c>
       <c r="P60" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="Q60" s="3">
         <v>1100</v>
       </c>
       <c r="R60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1800</v>
       </c>
       <c r="U60" s="3">
         <v>1800</v>
       </c>
       <c r="V60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W60" s="3">
         <v>1900</v>
-      </c>
-      <c r="W60" s="3">
-        <v>2000</v>
       </c>
       <c r="X60" s="3">
         <v>2000</v>
       </c>
       <c r="Y60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2000</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>1900</v>
       </c>
       <c r="AB60" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4526,11 +4669,11 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4603,10 +4749,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
@@ -4618,13 +4764,13 @@
         <v>500</v>
       </c>
       <c r="L62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>600</v>
       </c>
       <c r="N62" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="O62" s="3">
         <v>1100</v>
@@ -4633,13 +4779,13 @@
         <v>1100</v>
       </c>
       <c r="Q62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>1000</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -4656,8 +4802,8 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,79 +5063,82 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2300</v>
       </c>
       <c r="O66" s="3">
         <v>2300</v>
       </c>
       <c r="P66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1800</v>
       </c>
       <c r="U66" s="3">
         <v>1800</v>
       </c>
       <c r="V66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2000</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1900</v>
       </c>
       <c r="Y66" s="3">
         <v>1900</v>
       </c>
       <c r="Z66" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="AA66" s="3">
         <v>2100</v>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-11800</v>
       </c>
       <c r="J72" s="3">
         <v>-11800</v>
       </c>
       <c r="K72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="L72" s="3">
         <v>-12200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-8600</v>
       </c>
       <c r="R72" s="3">
         <v>-8600</v>
       </c>
       <c r="S72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="T72" s="3">
         <v>-8500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-7900</v>
       </c>
       <c r="X72" s="3">
         <v>-7900</v>
       </c>
       <c r="Y72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-7200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,64 +5841,67 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4800</v>
+        <v>6800</v>
       </c>
       <c r="E76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F76" s="3">
         <v>4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-400</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-300</v>
       </c>
       <c r="V76" s="3">
         <v>-300</v>
@@ -5724,22 +5910,25 @@
         <v>-300</v>
       </c>
       <c r="X76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>300</v>
       </c>
-      <c r="AB76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,129 +6007,135 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
@@ -5948,14 +6143,14 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
@@ -5963,28 +6158,31 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6034,7 +6233,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -6082,19 +6281,22 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>400</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,43 +6707,46 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -6541,10 +6758,10 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6553,10 +6770,10 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,16 +6823,17 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6623,8 +6844,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -6635,8 +6856,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6647,8 +6868,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -6671,8 +6892,8 @@
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6855,11 +7085,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6890,8 +7120,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
@@ -6899,8 +7129,8 @@
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,43 +7516,46 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-100</v>
-      </c>
       <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -7321,10 +7567,10 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7333,10 +7579,10 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,34 +7682,37 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>BRGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,154 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
@@ -816,11 +820,11 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
@@ -828,11 +832,11 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
@@ -840,57 +844,60 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>200</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>600</v>
       </c>
-      <c r="AA8" s="3">
-        <v>100</v>
-      </c>
       <c r="AB8" s="3">
         <v>100</v>
       </c>
       <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -899,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -911,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -923,58 +930,61 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>200</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>400</v>
       </c>
-      <c r="AA9" s="3">
-        <v>100</v>
-      </c>
       <c r="AB9" s="3">
         <v>100</v>
       </c>
       <c r="AC9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
@@ -994,11 +1004,11 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
@@ -1018,19 +1028,22 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
       <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,40 +1258,40 @@
         <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G14" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>-100</v>
       </c>
       <c r="I14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>2400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1286,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1298,19 +1318,22 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,46 +1446,47 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>-100</v>
-      </c>
       <c r="L17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1468,10 +1495,10 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1480,70 +1507,73 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
       <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>200</v>
       </c>
       <c r="AB17" s="3">
         <v>200</v>
       </c>
       <c r="AC17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
@@ -1551,10 +1581,10 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1566,28 +1596,31 @@
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
-      <c r="AA18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB18" s="3">
         <v>-100</v>
       </c>
       <c r="AC18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,47 +1650,48 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1680,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
@@ -1700,58 +1734,61 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
@@ -1760,31 +1797,34 @@
         <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>100</v>
       </c>
       <c r="Y21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB21" s="3">
         <v>-100</v>
       </c>
       <c r="AC21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1792,23 +1832,23 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
@@ -1822,7 +1862,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1831,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1855,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="Z22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1866,47 +1906,50 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
@@ -1914,14 +1957,14 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
@@ -1929,28 +1972,31 @@
         <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,47 +2164,50 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
@@ -2163,14 +2215,14 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
@@ -2178,67 +2230,70 @@
         <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
@@ -2246,14 +2301,14 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
@@ -2261,28 +2316,31 @@
         <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="AA27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
       <c r="AC27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,47 +2680,50 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2676,16 +2746,16 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
@@ -2696,47 +2766,50 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
@@ -2744,14 +2817,14 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
@@ -2759,28 +2832,31 @@
         <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
       <c r="AC33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,47 +2938,50 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
@@ -2910,14 +2989,14 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
@@ -2925,116 +3004,122 @@
         <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
       <c r="AC35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,37 +3181,38 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1100</v>
       </c>
       <c r="G41" s="3">
         <v>1100</v>
       </c>
       <c r="H41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -3178,8 +3265,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3288,11 +3381,11 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
@@ -3300,7 +3393,7 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3321,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
@@ -3330,22 +3423,25 @@
         <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="3">
         <v>500</v>
       </c>
       <c r="AC43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3353,25 +3449,25 @@
         <v>3000</v>
       </c>
       <c r="E44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F44" s="3">
         <v>3100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1200</v>
       </c>
       <c r="L44" s="3">
         <v>1200</v>
@@ -3395,13 +3491,13 @@
         <v>1200</v>
       </c>
       <c r="S44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T44" s="3">
         <v>1100</v>
       </c>
       <c r="U44" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="V44" s="3">
         <v>1200</v>
@@ -3413,22 +3509,25 @@
         <v>1200</v>
       </c>
       <c r="Y44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Z44" s="3">
         <v>1300</v>
       </c>
       <c r="AA44" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="AB44" s="3">
         <v>1200</v>
       </c>
       <c r="AC44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3436,7 +3535,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3448,11 +3547,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -3465,8 +3564,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
@@ -3483,8 +3582,8 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3510,37 +3609,40 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1300</v>
       </c>
       <c r="M46" s="3">
         <v>1300</v>
@@ -3549,28 +3651,28 @@
         <v>1300</v>
       </c>
       <c r="O46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1200</v>
       </c>
       <c r="U46" s="3">
         <v>1200</v>
       </c>
       <c r="V46" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="W46" s="3">
         <v>1300</v>
@@ -3585,16 +3687,19 @@
         <v>1300</v>
       </c>
       <c r="AA46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB46" s="3">
         <v>1600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3781,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3685,7 +3793,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -3694,16 +3802,16 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3739,7 +3847,7 @@
         <v>200</v>
       </c>
       <c r="W48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X48" s="3">
         <v>300</v>
@@ -3751,39 +3859,42 @@
         <v>300</v>
       </c>
       <c r="AA48" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB48" s="3">
         <v>600</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>700</v>
       </c>
       <c r="AC48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="E49" s="3">
         <v>6100</v>
       </c>
       <c r="F49" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G49" s="3">
         <v>6200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3600</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -3797,8 +3908,8 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4079,8 +4199,8 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
+      <c r="Z52" s="3">
+        <v>0</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,73 +4297,76 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E54" s="3">
         <v>9900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1500</v>
       </c>
       <c r="N54" s="3">
         <v>1500</v>
       </c>
       <c r="O54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P54" s="3">
         <v>1400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1500</v>
       </c>
       <c r="Q54" s="3">
         <v>1500</v>
       </c>
       <c r="R54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1400</v>
       </c>
       <c r="U54" s="3">
         <v>1400</v>
       </c>
       <c r="V54" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="W54" s="3">
         <v>1500</v>
       </c>
       <c r="X54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="Y54" s="3">
         <v>1600</v>
@@ -4249,16 +4375,19 @@
         <v>1600</v>
       </c>
       <c r="AA54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AB54" s="3">
         <v>2300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,61 +4449,62 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1900</v>
       </c>
       <c r="H57" s="3">
         <v>1900</v>
       </c>
       <c r="I57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J57" s="3">
         <v>1500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
@@ -4382,16 +4513,16 @@
         <v>300</v>
       </c>
       <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
       </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
@@ -4400,42 +4531,45 @@
         <v>200</v>
       </c>
       <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
@@ -4450,22 +4584,22 @@
         <v>600</v>
       </c>
       <c r="R58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S58" s="3">
         <v>500</v>
       </c>
       <c r="T58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U58" s="3">
         <v>400</v>
       </c>
       <c r="V58" s="3">
+        <v>400</v>
+      </c>
+      <c r="W58" s="3">
         <v>500</v>
-      </c>
-      <c r="W58" s="3">
-        <v>900</v>
       </c>
       <c r="X58" s="3">
         <v>900</v>
@@ -4477,7 +4611,7 @@
         <v>900</v>
       </c>
       <c r="AA58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB58" s="3">
         <v>1000</v>
@@ -4485,46 +4619,49 @@
       <c r="AC58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2600</v>
       </c>
       <c r="H59" s="3">
         <v>2600</v>
       </c>
       <c r="I59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J59" s="3">
         <v>1300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -4536,19 +4673,19 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1100</v>
       </c>
       <c r="V59" s="3">
         <v>1100</v>
       </c>
       <c r="W59" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="X59" s="3">
         <v>800</v>
@@ -4557,102 +4694,108 @@
         <v>800</v>
       </c>
       <c r="Z59" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA59" s="3">
         <v>700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1300</v>
       </c>
       <c r="P60" s="3">
         <v>1300</v>
       </c>
       <c r="Q60" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="R60" s="3">
         <v>1100</v>
       </c>
       <c r="S60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1800</v>
       </c>
       <c r="V60" s="3">
         <v>1800</v>
       </c>
       <c r="W60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X60" s="3">
         <v>1900</v>
-      </c>
-      <c r="X60" s="3">
-        <v>2000</v>
       </c>
       <c r="Y60" s="3">
         <v>2000</v>
       </c>
       <c r="Z60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2000</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>1900</v>
       </c>
       <c r="AC60" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4672,11 +4815,11 @@
         <v>300</v>
       </c>
       <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4752,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
@@ -4767,13 +4913,13 @@
         <v>500</v>
       </c>
       <c r="M62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
       </c>
       <c r="O62" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="P62" s="3">
         <v>1100</v>
@@ -4782,13 +4928,13 @@
         <v>1100</v>
       </c>
       <c r="R62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="S62" s="3">
         <v>1000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+      <c r="T62" s="3">
+        <v>1000</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
@@ -4805,8 +4951,8 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,82 +5221,85 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2300</v>
       </c>
       <c r="P66" s="3">
         <v>2300</v>
       </c>
       <c r="Q66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1800</v>
       </c>
       <c r="V66" s="3">
         <v>1800</v>
       </c>
       <c r="W66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1900</v>
       </c>
       <c r="Z66" s="3">
         <v>1900</v>
       </c>
       <c r="AA66" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="AB66" s="3">
         <v>2100</v>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-11800</v>
       </c>
       <c r="K72" s="3">
         <v>-11800</v>
       </c>
       <c r="L72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="M72" s="3">
         <v>-12200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8700</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-8600</v>
       </c>
       <c r="S72" s="3">
         <v>-8600</v>
       </c>
       <c r="T72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="U72" s="3">
         <v>-8500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-7900</v>
       </c>
       <c r="Y72" s="3">
         <v>-7900</v>
       </c>
       <c r="Z72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-7300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-7200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,67 +6027,70 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E76" s="3">
         <v>6800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-300</v>
       </c>
       <c r="W76" s="3">
         <v>-300</v>
@@ -5913,22 +6099,25 @@
         <v>-300</v>
       </c>
       <c r="Y76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>300</v>
       </c>
-      <c r="AC76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,135 +6199,141 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
@@ -6146,14 +6341,14 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
@@ -6161,28 +6356,31 @@
         <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
       <c r="AC81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6236,7 +6435,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -6284,19 +6483,22 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
         <v>400</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,46 +6924,49 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -6761,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -6773,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -6793,8 +7010,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6835,8 +7056,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6847,8 +7068,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -6859,8 +7080,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6871,8 +7092,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -6895,8 +7116,8 @@
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7088,11 +7318,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -7123,8 +7353,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
@@ -7132,8 +7362,8 @@
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,46 +7762,49 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
-        <v>-100</v>
-      </c>
       <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -7570,10 +7816,10 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7582,10 +7828,10 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7602,8 +7848,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,37 +7934,40 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>BRGO</t>
   </si>
@@ -1452,8 +1452,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>2000</v>
       </c>
       <c r="E17" s="3">
         <v>3000</v>
@@ -1538,8 +1538,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
         <v>-500</v>
@@ -1656,8 +1656,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
@@ -1742,8 +1742,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-700</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -2688,8 +2688,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>

--- a/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRGO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,213 +665,233 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AG7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2200</v>
       </c>
       <c r="I8" s="3">
         <v>2100</v>
       </c>
       <c r="J8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
         <v>600</v>
       </c>
-      <c r="AB8" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -879,37 +899,37 @@
         <v>600</v>
       </c>
       <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>2700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -918,82 +938,91 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
         <v>200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="AA9" s="3">
         <v>200</v>
       </c>
-      <c r="Y9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
         <v>400</v>
       </c>
-      <c r="AB9" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
@@ -1007,17 +1036,17 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
@@ -1031,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
@@ -1042,8 +1071,17 @@
       <c r="AD10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1112,11 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1201,17 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,22 +1296,31 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>-100</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H14" s="3">
         <v>-100</v>
@@ -1270,22 +1329,22 @@
         <v>-100</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>2400</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1294,13 +1353,13 @@
         <v>8</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+        <v>2400</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1309,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1318,22 +1377,31 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>200</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1486,17 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,58 +1524,61 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G17" s="3">
         <v>2000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5300</v>
       </c>
       <c r="H17" s="3">
         <v>3000</v>
       </c>
       <c r="I17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
-      </c>
       <c r="O17" s="3">
-        <v>2600</v>
+        <v>-100</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1507,84 +1587,93 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
-        <v>1300</v>
-      </c>
       <c r="AB17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC17" s="3">
         <v>200</v>
       </c>
       <c r="AD17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AG17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1593,34 +1682,43 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AD18" s="3">
         <v>-700</v>
       </c>
-      <c r="AB18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1749,11 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1660,47 +1761,47 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1717,147 +1818,165 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
@@ -1865,16 +1984,16 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1883,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1898,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1907,96 +2026,114 @@
         <v>0</v>
       </c>
       <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2218,17 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2313,207 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-700</v>
       </c>
       <c r="F27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-600</v>
       </c>
-      <c r="AB27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2598,17 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2693,17 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2788,17 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2883,17 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2692,47 +2901,47 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2749,114 +2958,132 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-700</v>
       </c>
       <c r="F33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-600</v>
       </c>
-      <c r="AB33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3168,212 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-700</v>
       </c>
       <c r="F35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-600</v>
       </c>
-      <c r="AB35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AG38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3404,11 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,46 +3439,49 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -3268,8 +3528,17 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,8 +3623,17 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3363,7 +3641,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -3384,25 +3662,25 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3417,66 +3695,75 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
         <v>500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AF43" s="3">
         <v>500</v>
       </c>
-      <c r="AD43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AG43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G44" s="3">
         <v>3000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3200</v>
       </c>
       <c r="H44" s="3">
         <v>3000</v>
       </c>
       <c r="I44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L44" s="3">
         <v>2700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>2300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>1100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1200</v>
       </c>
       <c r="O44" s="3">
         <v>1200</v>
@@ -3494,87 +3781,96 @@
         <v>1200</v>
       </c>
       <c r="T44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="U44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="V44" s="3">
         <v>1200</v>
       </c>
       <c r="W44" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="X44" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Y44" s="3">
         <v>1200</v>
       </c>
       <c r="Z44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="AA44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="AB44" s="3">
         <v>1200</v>
       </c>
       <c r="AC44" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="AD44" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
@@ -3585,14 +3881,14 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3612,76 +3908,85 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G46" s="3">
         <v>3300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>3700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>3800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>4200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>3600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1300</v>
       </c>
       <c r="N46" s="3">
         <v>1300</v>
       </c>
       <c r="O46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P46" s="3">
         <v>1300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1200</v>
       </c>
       <c r="Q46" s="3">
         <v>1300</v>
       </c>
       <c r="R46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1100</v>
       </c>
       <c r="U46" s="3">
         <v>1200</v>
       </c>
       <c r="V46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="X46" s="3">
-        <v>1300</v>
-      </c>
       <c r="Y46" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Z46" s="3">
         <v>1300</v>
@@ -3690,16 +3995,25 @@
         <v>1300</v>
       </c>
       <c r="AB46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AE46" s="3">
         <v>1600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AF46" s="3">
         <v>1700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AG46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,8 +4098,17 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3793,34 +4116,34 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3850,60 +4173,69 @@
         <v>200</v>
       </c>
       <c r="X48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA48" s="3">
         <v>300</v>
       </c>
       <c r="AB48" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE48" s="3">
         <v>600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AF48" s="3">
         <v>700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AG48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F49" s="3">
         <v>6000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H49" s="3">
         <v>6100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>6100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>6200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>6300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>3500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>3600</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -3911,14 +4243,14 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3956,8 +4288,17 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4383,17 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4478,17 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4202,20 +4561,29 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC52" s="3" t="s">
-        <v>8</v>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
       </c>
       <c r="AD52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,46 +4668,55 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G54" s="3">
         <v>9400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>9900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>10100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>10800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>10700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>9000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>7400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1400</v>
       </c>
       <c r="N54" s="3">
         <v>1500</v>
       </c>
       <c r="O54" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P54" s="3">
         <v>1400</v>
@@ -4354,40 +4731,49 @@
         <v>1400</v>
       </c>
       <c r="T54" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="U54" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="V54" s="3">
         <v>1400</v>
       </c>
       <c r="W54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>1500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AB54" s="3">
         <v>1600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AC54" s="3">
         <v>1600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AD54" s="3">
         <v>1600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AE54" s="3">
         <v>2300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AF54" s="3">
         <v>2400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AG54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4804,11 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,8 +4839,11 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4459,37 +4851,37 @@
         <v>1700</v>
       </c>
       <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -4501,10 +4893,10 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
@@ -4513,10 +4905,10 @@
         <v>300</v>
       </c>
       <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
@@ -4528,57 +4920,66 @@
         <v>200</v>
       </c>
       <c r="AB57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD57" s="3">
         <v>200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AG57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -4587,200 +4988,218 @@
         <v>600</v>
       </c>
       <c r="S58" s="3">
+        <v>600</v>
+      </c>
+      <c r="T58" s="3">
+        <v>600</v>
+      </c>
+      <c r="U58" s="3">
+        <v>600</v>
+      </c>
+      <c r="V58" s="3">
         <v>500</v>
-      </c>
-      <c r="T58" s="3">
-        <v>500</v>
-      </c>
-      <c r="U58" s="3">
-        <v>400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>400</v>
       </c>
       <c r="W58" s="3">
         <v>500</v>
       </c>
       <c r="X58" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Y58" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Z58" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AA58" s="3">
         <v>900</v>
       </c>
       <c r="AB58" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE58" s="3">
         <v>1000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AF58" s="3">
         <v>1000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AG58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
       <c r="T59" s="3">
+        <v>300</v>
+      </c>
+      <c r="U59" s="3">
+        <v>300</v>
+      </c>
+      <c r="V59" s="3">
+        <v>300</v>
+      </c>
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>800</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>800</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>700</v>
       </c>
       <c r="AB59" s="3">
         <v>800</v>
       </c>
       <c r="AC59" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD59" s="3">
         <v>700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AG59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>6700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>7800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>5600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1800</v>
       </c>
       <c r="X60" s="3">
         <v>1900</v>
       </c>
       <c r="Y60" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="Z60" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="AA60" s="3">
         <v>1900</v>
@@ -4789,13 +5208,22 @@
         <v>2000</v>
       </c>
       <c r="AC60" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="AD60" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AG60" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4818,17 +5246,17 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
+        <v>300</v>
+      </c>
+      <c r="L61" s="3">
+        <v>300</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4880,16 +5308,25 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4901,49 +5338,49 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
       </c>
       <c r="N62" s="3">
+        <v>500</v>
+      </c>
+      <c r="O62" s="3">
+        <v>500</v>
+      </c>
+      <c r="P62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>1100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>1100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>1000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="W62" s="3">
         <v>1000</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
@@ -4954,20 +5391,29 @@
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5498,17 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5593,17 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5688,112 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>7600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>6000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>2100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>2000</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1800</v>
       </c>
       <c r="X66" s="3">
         <v>1900</v>
       </c>
       <c r="Y66" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="Z66" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="AA66" s="3">
         <v>1900</v>
       </c>
       <c r="AB66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AE66" s="3">
         <v>2100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AF66" s="3">
         <v>2100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AG66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5824,11 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5913,17 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,16 +6008,25 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -5600,8 +6103,17 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +6198,112 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-18200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-17600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-16900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-14500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-14800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-13800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-12300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-11800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-11800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-12200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-13100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-11700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-8800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-8700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-8600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-8600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-8500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-8300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-8200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AB72" s="3">
         <v>-7900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AC72" s="3">
         <v>-7900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AD72" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AE72" s="3">
         <v>-7300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AF72" s="3">
         <v>-7200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AG72" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6388,17 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6483,17 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6578,112 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G76" s="3">
         <v>6400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>6800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>5800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-400</v>
       </c>
       <c r="AA76" s="3">
         <v>-300</v>
       </c>
       <c r="AB76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE76" s="3">
         <v>200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AF76" s="3">
         <v>300</v>
       </c>
-      <c r="AD76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AG76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6768,212 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AG80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-700</v>
       </c>
       <c r="F81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-600</v>
       </c>
-      <c r="AB81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AG81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +7004,11 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6438,13 +7034,13 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -6486,19 +7082,28 @@
         <v>0</v>
       </c>
       <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
         <v>400</v>
       </c>
-      <c r="AB83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +7188,17 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +7283,17 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +7378,17 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7473,17 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,47 +7568,56 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -6975,13 +7625,13 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -6990,10 +7640,10 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -7002,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB89" s="3">
         <v>0</v>
@@ -7013,8 +7663,17 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,19 +7704,22 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -7071,38 +7733,38 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -7119,20 +7781,29 @@
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>0</v>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7888,17 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7983,17 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7321,17 +8010,17 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -7356,24 +8045,24 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3" t="s">
+      <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
@@ -7389,8 +8078,17 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +8119,11 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +8208,17 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +8303,17 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +8398,17 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,47 +8493,56 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>300</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7813,13 +8550,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7828,10 +8565,10 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7840,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
@@ -7851,8 +8588,17 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,46 +8683,55 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -8021,6 +8776,15 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="3">
         <v>0</v>
       </c>
     </row>
